--- a/NformTester/NformTester/keywordscripts/TST1353_UninstallationProcess.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1353_UninstallationProcess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
+    <workbookView xWindow="270" yWindow="2535" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -3590,10 +3590,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>C:\\Nform_4.7.2\\SE\\Nform_4.7.2_Setup.exe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Expand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3641,6 +3637,10 @@
   </si>
   <si>
     <t>Finish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Nform_4.8.1_ET\\SE\\Nform_4.8.1_ET_Setup.exe</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4571,7 +4571,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4635,13 +4635,13 @@
         <v>753</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="14"/>
@@ -4666,10 +4666,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>795</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>796</v>
       </c>
       <c r="F3" s="14">
         <v>10</v>
@@ -4695,10 +4695,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>797</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>798</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>669</v>
@@ -4726,13 +4726,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>798</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>799</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>2</v>
@@ -4757,7 +4757,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>680</v>
@@ -4788,10 +4788,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>683</v>
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>795</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>796</v>
       </c>
       <c r="F8" s="14">
         <v>70</v>
@@ -4849,10 +4849,10 @@
         <v>787</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>2</v>
@@ -4873,10 +4873,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F10" s="14">
         <v>5</v>
@@ -15243,7 +15243,7 @@
         <v>5</v>
       </c>
       <c r="CI3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -16392,7 +16392,7 @@
         <v>4</v>
       </c>
       <c r="RB3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="RC3" t="s">
         <v>4</v>
@@ -17367,7 +17367,7 @@
         <v>4</v>
       </c>
       <c r="ADO3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="ADP3" t="s">
         <v>5</v>
@@ -17478,7 +17478,7 @@
         <v>4</v>
       </c>
       <c r="AEZ3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AFA3" t="s">
         <v>6</v>
@@ -17490,7 +17490,7 @@
         <v>6</v>
       </c>
       <c r="AFD3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AFE3" t="s">
         <v>6</v>
@@ -25349,19 +25349,19 @@
         <v>8</v>
       </c>
       <c r="AS7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AT7" t="s">
         <v>8</v>
       </c>
       <c r="CH7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="CI7" t="s">
         <v>7</v>
       </c>
       <c r="CO7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="CY7" t="s">
         <v>8</v>
@@ -25370,7 +25370,7 @@
         <v>8</v>
       </c>
       <c r="DF7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="DG7" t="s">
         <v>8</v>
@@ -25466,7 +25466,7 @@
         <v>8</v>
       </c>
       <c r="FX7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="GA7" t="s">
         <v>8</v>
@@ -25541,7 +25541,7 @@
         <v>6</v>
       </c>
       <c r="IQ7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="IS7" t="s">
         <v>8</v>
@@ -25694,7 +25694,7 @@
         <v>8</v>
       </c>
       <c r="LI7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="LJ7" t="s">
         <v>8</v>
@@ -25709,7 +25709,7 @@
         <v>8</v>
       </c>
       <c r="LV7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="LZ7" t="s">
         <v>6</v>
@@ -25724,7 +25724,7 @@
         <v>8</v>
       </c>
       <c r="MH7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="MI7" t="s">
         <v>8</v>
@@ -25775,7 +25775,7 @@
         <v>8</v>
       </c>
       <c r="NL7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="NR7" t="s">
         <v>8</v>
@@ -25841,7 +25841,7 @@
         <v>8</v>
       </c>
       <c r="PQ7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="PR7" t="s">
         <v>8</v>
@@ -25892,7 +25892,7 @@
         <v>8</v>
       </c>
       <c r="RD7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="RT7" t="s">
         <v>8</v>
@@ -25964,7 +25964,7 @@
         <v>8</v>
       </c>
       <c r="TF7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="TL7" t="s">
         <v>8</v>
@@ -26165,16 +26165,16 @@
         <v>6</v>
       </c>
       <c r="YZ7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="ZA7" t="s">
         <v>8</v>
       </c>
       <c r="ZG7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="ZH7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="ZI7" t="s">
         <v>8</v>
@@ -26207,7 +26207,7 @@
         <v>8</v>
       </c>
       <c r="ZW7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AAA7" t="s">
         <v>8</v>
@@ -26219,7 +26219,7 @@
         <v>6</v>
       </c>
       <c r="AAK7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AAL7" t="s">
         <v>6</v>
@@ -26264,7 +26264,7 @@
         <v>8</v>
       </c>
       <c r="ACI7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="ACL7" t="s">
         <v>6</v>
@@ -26276,13 +26276,13 @@
         <v>6</v>
       </c>
       <c r="ACP7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="ACT7" t="s">
         <v>8</v>
       </c>
       <c r="ADK7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="ADL7" t="s">
         <v>6</v>
@@ -26297,7 +26297,7 @@
         <v>7</v>
       </c>
       <c r="ADP7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AEC7" t="s">
         <v>6</v>
@@ -26348,7 +26348,7 @@
         <v>8</v>
       </c>
       <c r="AFY7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AGK7" t="s">
         <v>8</v>
@@ -26381,13 +26381,13 @@
         <v>8</v>
       </c>
       <c r="AHW7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AID7" t="s">
         <v>8</v>
       </c>
       <c r="AIP7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AIX7" t="s">
         <v>8</v>
@@ -26396,13 +26396,13 @@
         <v>8</v>
       </c>
       <c r="AJH7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AJQ7" t="s">
         <v>8</v>
       </c>
       <c r="AJR7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AJS7" t="s">
         <v>8</v>
@@ -26458,26 +26458,26 @@
     </row>
     <row r="8" spans="1:1014">
       <c r="AS8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="CH8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="CI8" t="s">
         <v>8</v>
       </c>
       <c r="CO8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="DF8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="FI8" t="s">
+        <v>789</v>
+      </c>
+      <c r="FX8" t="s">
         <v>790</v>
       </c>
-      <c r="FX8" t="s">
-        <v>791</v>
-      </c>
       <c r="IJ8" t="s">
         <v>7</v>
       </c>
@@ -26485,70 +26485,70 @@
         <v>7</v>
       </c>
       <c r="IQ8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="LI8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="LV8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="LZ8" t="s">
         <v>7</v>
       </c>
       <c r="MG8" t="s">
+        <v>789</v>
+      </c>
+      <c r="MH8" t="s">
         <v>790</v>
       </c>
-      <c r="MH8" t="s">
-        <v>791</v>
-      </c>
       <c r="NL8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="PQ8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="PV8" t="s">
+        <v>789</v>
+      </c>
+      <c r="QS8" t="s">
+        <v>789</v>
+      </c>
+      <c r="RB8" t="s">
+        <v>8</v>
+      </c>
+      <c r="RD8" t="s">
         <v>790</v>
       </c>
-      <c r="QS8" t="s">
+      <c r="TF8" t="s">
         <v>790</v>
       </c>
-      <c r="RB8" t="s">
-        <v>8</v>
-      </c>
-      <c r="RD8" t="s">
-        <v>791</v>
-      </c>
-      <c r="TF8" t="s">
-        <v>791</v>
-      </c>
       <c r="YY8" t="s">
         <v>7</v>
       </c>
       <c r="YZ8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ZG8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ZH8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ZW8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AAJ8" t="s">
         <v>7</v>
       </c>
       <c r="AAK8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AAL8" t="s">
         <v>7</v>
       </c>
       <c r="ACI8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ACL8" t="s">
         <v>7</v>
@@ -26560,10 +26560,10 @@
         <v>7</v>
       </c>
       <c r="ACP8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ADK8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ADL8" t="s">
         <v>7</v>
@@ -26572,7 +26572,7 @@
         <v>8</v>
       </c>
       <c r="ADP8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AEC8" t="s">
         <v>7</v>
@@ -26587,28 +26587,28 @@
         <v>8</v>
       </c>
       <c r="AFY8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AHW8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AIP8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AJH8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AJR8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="1:1014">
       <c r="CI9" t="s">
+        <v>789</v>
+      </c>
+      <c r="FI9" t="s">
         <v>790</v>
       </c>
-      <c r="FI9" t="s">
-        <v>791</v>
-      </c>
       <c r="IJ9" t="s">
         <v>8</v>
       </c>
@@ -26619,16 +26619,16 @@
         <v>8</v>
       </c>
       <c r="MG9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="PV9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="QS9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="RB9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="YY9" t="s">
         <v>8</v>
@@ -26652,7 +26652,7 @@
         <v>8</v>
       </c>
       <c r="ADO9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AEC9" t="s">
         <v>8</v>
@@ -26661,27 +26661,27 @@
         <v>8</v>
       </c>
       <c r="AEZ9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AFD9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:1014">
       <c r="CI10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="RB10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="ADO10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AEZ10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AFD10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1353_UninstallationProcess.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1353_UninstallationProcess.xlsx
@@ -4571,7 +4571,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/keywordscripts/TST1353_UninstallationProcess.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1353_UninstallationProcess.xlsx
@@ -3640,7 +3640,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Nform_4.8.1_ET\\SE\\Nform_4.8.1_ET_Setup.exe</t>
+    <t>C:\\Nform_4.8.1\\SE\\Nform_4.8.1_Setup.exe</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4571,7 +4571,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/keywordscripts/TST1353_UninstallationProcess.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1353_UninstallationProcess.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7086" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7087" uniqueCount="803">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3640,8 +3640,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Nform_4.8.1\\SE\\Nform_4.8.1_Setup.exe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Nform_4.9.1_ET\\SE\\Nform_4.9.1_ET_Setup.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4568,7 +4572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4635,7 +4639,7 @@
         <v>753</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4751,7 +4755,7 @@
         <v>759</v>
       </c>
       <c r="B6" s="6">
-        <v>41045</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4810,9 +4814,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>801</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4837,11 +4841,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>763</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4867,8 +4869,12 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>763</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4892,10 +4898,8 @@
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
@@ -4912,7 +4916,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="4"/>
@@ -4931,7 +4935,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4"/>
@@ -4950,7 +4954,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4"/>
@@ -4969,7 +4973,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="4"/>
@@ -4988,7 +4992,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="4"/>
@@ -5006,10 +5010,10 @@
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
-        <v>770</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="4"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
@@ -5027,7 +5031,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="13"/>
@@ -5044,11 +5048,9 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="13"/>
@@ -5066,9 +5068,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B20" s="10"/>
+        <v>772</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>763</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -5085,7 +5089,7 @@
     </row>
     <row r="21" spans="1:15" ht="15">
       <c r="A21" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="4"/>
@@ -5103,8 +5107,10 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="4"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
@@ -5118,6 +5124,10 @@
       <c r="M22" s="4"/>
       <c r="N22" s="12"/>
       <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NformTester/NformTester/keywordscripts/TST1353_UninstallationProcess.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1353_UninstallationProcess.xlsx
@@ -3644,7 +3644,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Nform_4.9.1_ET\\SE\\Nform_4.9.1_ET_Setup.exe</t>
+    <t>$NformInstaller$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4574,9 +4574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
